--- a/xlsx/建筑物_intext.xlsx
+++ b/xlsx/建筑物_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="171">
   <si>
     <t>建筑物</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%89%A9</t>
   </si>
   <si>
-    <t>結構物</t>
-  </si>
-  <si>
-    <t>政策_政策_藍圖_建筑物</t>
+    <t>结构物</t>
+  </si>
+  <si>
+    <t>政策_政策_蓝图_建筑物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BD%A2%E8%B1%A1</t>
@@ -95,37 +95,34 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%9E%E5%BB%BA%E7%AF%89%E7%B5%90%E6%A7%8B%E7%89%A9</t>
   </si>
   <si>
-    <t>非建築結構物</t>
+    <t>非建筑结构物</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%AD%B8</t>
   </si>
   <si>
-    <t>建築學</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%84%8F%E8%AD%98</t>
   </si>
   <si>
-    <t>意識</t>
+    <t>意识</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8D%B7%E8%98%AD%E5%A4%A7%E9%83%BD%E6%9C%83%E5%BB%BA%E7%AF%89%E4%BA%8B%E5%8B%99%E6%89%80</t>
   </si>
   <si>
-    <t>荷蘭大都會建築事務所</t>
+    <t>荷兰大都会建筑事务所</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E5%A7%86%C2%B7%E5%BA%AB%E5%93%88%E6%96%AF</t>
   </si>
   <si>
-    <t>雷姆·庫哈斯</t>
+    <t>雷姆·库哈斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96%E4%B8%AD%E5%A4%AE%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>西雅圖中央圖書館</t>
+    <t>西雅图中央图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%84%B6%E7%95%8C</t>
@@ -137,19 +134,16 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%AD%B8</t>
   </si>
   <si>
-    <t>美學</t>
+    <t>美学</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>建築</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E9%87%8C%E5%BE%B7%E9%87%8C%E5%B8%8C%C2%B7%E8%AC%9D%E6%9E%97</t>
   </si>
   <si>
-    <t>弗里德里希·謝林</t>
+    <t>弗里德里希·谢林</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%B3%E4%B9%90</t>
@@ -167,19 +161,19 @@
     <t>https://zh.wikipedia.org/wiki/%E8%97%9D%E8%A1%93</t>
   </si>
   <si>
-    <t>藝術</t>
+    <t>艺术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B1%A1%E5%BE%B5</t>
   </si>
   <si>
-    <t>象徵</t>
+    <t>象征</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%89%86</t>
   </si>
   <si>
-    <t>牆</t>
+    <t>墙</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B1%8B%E9%A1%B6</t>
@@ -191,7 +185,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%8B%E6%A8%91</t>
   </si>
   <si>
-    <t>橋樑</t>
+    <t>桥樑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9A%A7%E9%81%93</t>
@@ -221,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%83%A1%E4%BD%9B%E6%B0%B4%E5%A3%A9</t>
   </si>
   <si>
-    <t>胡佛水壩</t>
+    <t>胡佛水坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E5%87%BD%E9%9A%A7%E9%81%93</t>
@@ -263,7 +257,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E6%A8%93</t>
   </si>
   <si>
-    <t>塔樓</t>
+    <t>塔楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9D%9F%E5%A2%93</t>
@@ -287,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%A4%E5%A3%A9</t>
   </si>
   <si>
-    <t>堤壩</t>
+    <t>堤坝</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E5%B8%88</t>
@@ -317,7 +311,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%95%B4%E5%90%88%E5%A4%AA%E9%99%BD%E8%83%BD</t>
   </si>
   <si>
-    <t>建築整合太陽能</t>
+    <t>建筑整合太阳能</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A7%A3%E6%9E%84%E4%B8%BB%E4%B9%89%E5%BB%BA%E7%AD%91</t>
@@ -335,13 +329,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%91%A9%E5%A4%A9%E5%A4%A7%E6%A8%93</t>
   </si>
   <si>
-    <t>摩天大樓</t>
+    <t>摩天大楼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Template_talk:%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>Template talk-建築</t>
+    <t>Template talk-建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%AB%98%E5%B1%82%E5%BB%BA%E7%AD%91%E7%89%A9</t>
@@ -359,13 +353,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%94%E5%BC%8F%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>塔式建築</t>
+    <t>塔式建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E5%B7%A5%E5%9C%B0</t>
   </si>
   <si>
-    <t>建築工地</t>
+    <t>建筑工地</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E6%9D%90%E6%96%99</t>
@@ -383,31 +377,31 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E5%8F%8D%E5%8A%9B</t>
   </si>
   <si>
-    <t>結構反力</t>
+    <t>结构反力</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%94%AF%E6%89%BF</t>
   </si>
   <si>
-    <t>結構支承</t>
+    <t>结构支承</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E6%A7%8B%E4%BB%B6</t>
   </si>
   <si>
-    <t>結構構件</t>
+    <t>结构构件</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E7%AF%80%E9%BB%9E</t>
   </si>
   <si>
-    <t>結構節點</t>
+    <t>结构节点</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%90%E6%A7%8B%E8%8D%B7%E9%87%8D</t>
   </si>
   <si>
-    <t>結構荷重</t>
+    <t>结构荷重</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E7%94%B1%E5%BA%A6_(%E5%B7%A5%E7%A8%8B%E5%AD%A6)</t>
@@ -437,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AF%89%E6%8A%80%E8%A1%93</t>
   </si>
   <si>
-    <t>建築技術</t>
+    <t>建筑技术</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BA%BA</t>
@@ -479,7 +473,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%AF%E8%A7%80%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>景觀設計</t>
+    <t>景观设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E6%88%90%E7%8E%AF%E5%A2%83</t>
@@ -497,13 +491,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%A0%E8%89%B2%E5%BB%BA%E7%AF%89</t>
   </si>
   <si>
-    <t>綠色建築</t>
+    <t>绿色建筑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%B7%E6%A5%AD%E5%AE%89%E5%85%A8</t>
   </si>
   <si>
-    <t>職業安全</t>
+    <t>职业安全</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BB%BA%E7%AD%91%E7%BE%8E%E5%AD%A6</t>
@@ -515,13 +509,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B0%B8%E7%BA%8C%E8%A8%AD%E8%A8%88</t>
   </si>
   <si>
-    <t>永續設計</t>
+    <t>永续设计</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -533,7 +527,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -1281,7 +1275,7 @@
         <v>27</v>
       </c>
       <c r="F14" t="s">
-        <v>28</v>
+        <v>10</v>
       </c>
       <c r="G14" t="n">
         <v>1</v>
@@ -1307,10 +1301,10 @@
         <v>14</v>
       </c>
       <c r="E15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" t="s">
         <v>29</v>
-      </c>
-      <c r="F15" t="s">
-        <v>30</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1336,10 +1330,10 @@
         <v>15</v>
       </c>
       <c r="E16" t="s">
+        <v>30</v>
+      </c>
+      <c r="F16" t="s">
         <v>31</v>
-      </c>
-      <c r="F16" t="s">
-        <v>32</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1365,10 +1359,10 @@
         <v>16</v>
       </c>
       <c r="E17" t="s">
+        <v>32</v>
+      </c>
+      <c r="F17" t="s">
         <v>33</v>
-      </c>
-      <c r="F17" t="s">
-        <v>34</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1394,10 +1388,10 @@
         <v>17</v>
       </c>
       <c r="E18" t="s">
+        <v>34</v>
+      </c>
+      <c r="F18" t="s">
         <v>35</v>
-      </c>
-      <c r="F18" t="s">
-        <v>36</v>
       </c>
       <c r="G18" t="n">
         <v>1</v>
@@ -1423,10 +1417,10 @@
         <v>18</v>
       </c>
       <c r="E19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F19" t="s">
         <v>37</v>
-      </c>
-      <c r="F19" t="s">
-        <v>38</v>
       </c>
       <c r="G19" t="n">
         <v>1</v>
@@ -1481,10 +1475,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="s">
+        <v>38</v>
+      </c>
+      <c r="F21" t="s">
         <v>39</v>
-      </c>
-      <c r="F21" t="s">
-        <v>40</v>
       </c>
       <c r="G21" t="n">
         <v>1</v>
@@ -1510,10 +1504,10 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F22" t="s">
-        <v>42</v>
+        <v>14</v>
       </c>
       <c r="G22" t="n">
         <v>46</v>
@@ -1539,10 +1533,10 @@
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F23" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="G23" t="n">
         <v>1</v>
@@ -1568,10 +1562,10 @@
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="F24" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1597,10 +1591,10 @@
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="G25" t="n">
         <v>1</v>
@@ -1626,10 +1620,10 @@
         <v>25</v>
       </c>
       <c r="E26" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F26" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="G26" t="n">
         <v>4</v>
@@ -1655,10 +1649,10 @@
         <v>26</v>
       </c>
       <c r="E27" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F27" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="G27" t="n">
         <v>2</v>
@@ -1684,10 +1678,10 @@
         <v>27</v>
       </c>
       <c r="E28" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F28" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="G28" t="n">
         <v>1</v>
@@ -1713,10 +1707,10 @@
         <v>28</v>
       </c>
       <c r="E29" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F29" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="G29" t="n">
         <v>1</v>
@@ -1742,10 +1736,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F30" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1771,10 +1765,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="F31" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="G31" t="n">
         <v>4</v>
@@ -1800,10 +1794,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="F32" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="G32" t="n">
         <v>3</v>
@@ -1829,10 +1823,10 @@
         <v>32</v>
       </c>
       <c r="E33" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="F33" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="G33" t="n">
         <v>1</v>
@@ -1858,10 +1852,10 @@
         <v>33</v>
       </c>
       <c r="E34" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="F34" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="G34" t="n">
         <v>1</v>
@@ -1887,10 +1881,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="F35" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>1</v>
@@ -1916,10 +1910,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="F36" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1945,10 +1939,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="F37" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1974,10 +1968,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F38" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -2003,10 +1997,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="F39" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -2032,10 +2026,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F40" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -2061,10 +2055,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F41" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>2</v>
@@ -2090,10 +2084,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="F42" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -2119,10 +2113,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F43" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
@@ -2148,10 +2142,10 @@
         <v>43</v>
       </c>
       <c r="E44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F44" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="G44" t="n">
         <v>1</v>
@@ -2177,10 +2171,10 @@
         <v>44</v>
       </c>
       <c r="E45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G45" t="n">
         <v>1</v>
@@ -2206,10 +2200,10 @@
         <v>45</v>
       </c>
       <c r="E46" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F46" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="G46" t="n">
         <v>1</v>
@@ -2235,10 +2229,10 @@
         <v>46</v>
       </c>
       <c r="E47" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F47" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G47" t="n">
         <v>1</v>
@@ -2264,10 +2258,10 @@
         <v>47</v>
       </c>
       <c r="E48" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="G48" t="n">
         <v>1</v>
@@ -2293,10 +2287,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F49" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G49" t="n">
         <v>1</v>
@@ -2322,10 +2316,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="F50" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2351,10 +2345,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="F51" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2380,10 +2374,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="F52" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2409,10 +2403,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="F53" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="G53" t="n">
         <v>2</v>
@@ -2438,10 +2432,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="F54" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2467,10 +2461,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F55" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="G55" t="n">
         <v>4</v>
@@ -2496,10 +2490,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="G56" t="n">
         <v>3</v>
@@ -2525,10 +2519,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F57" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="G57" t="n">
         <v>9</v>
@@ -2554,10 +2548,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="F58" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="G58" t="n">
         <v>1</v>
@@ -2612,10 +2606,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="F60" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="G60" t="n">
         <v>1</v>
@@ -2641,10 +2635,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="F61" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2670,10 +2664,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="F62" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="G62" t="n">
         <v>1</v>
@@ -2699,10 +2693,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="F63" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2728,10 +2722,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="F64" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -2757,10 +2751,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="F65" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G65" t="n">
         <v>1</v>
@@ -2786,10 +2780,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="F66" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -2815,10 +2809,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F67" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G67" t="n">
         <v>1</v>
@@ -2844,10 +2838,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F68" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="G68" t="n">
         <v>1</v>
@@ -2873,10 +2867,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="F69" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -2902,10 +2896,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="F70" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G70" t="n">
         <v>1</v>
@@ -2931,10 +2925,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="F71" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="G71" t="n">
         <v>1</v>
@@ -2960,10 +2954,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="F72" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -2989,10 +2983,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F73" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3018,10 +3012,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F74" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="G74" t="n">
         <v>1</v>
@@ -3047,10 +3041,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F75" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3076,10 +3070,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F76" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3105,10 +3099,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F77" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3134,10 +3128,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F78" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3163,10 +3157,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F79" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3192,10 +3186,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F80" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3221,10 +3215,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F81" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="G81" t="n">
         <v>4</v>
@@ -3250,10 +3244,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F82" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="G82" t="n">
         <v>2</v>
@@ -3279,10 +3273,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F83" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="G83" t="n">
         <v>1</v>
@@ -3308,10 +3302,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="F84" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -3337,10 +3331,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="F85" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3366,10 +3360,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F86" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -3395,10 +3389,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="F87" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="G87" t="n">
         <v>3</v>
@@ -3424,10 +3418,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F88" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3453,10 +3447,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F89" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
